--- a/data/trans_dic/Hacinamiento_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.07681750933133652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05186104386475494</v>
+        <v>0.05186104386475493</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.08508186715901932</v>
@@ -685,7 +685,7 @@
         <v>0.06302652387978734</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06023859852381886</v>
+        <v>0.06023859852381883</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.0797657443621252</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04948645341653379</v>
+        <v>0.05210436338558865</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0666955214956122</v>
+        <v>0.06522047767321887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06152491027383033</v>
+        <v>0.06201856831557043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03130724148426021</v>
+        <v>0.03328722511459217</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06689873504374444</v>
+        <v>0.06569555728296991</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08749478391534617</v>
+        <v>0.08644809041298895</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04997094183955635</v>
+        <v>0.05086103132282811</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04313180039789948</v>
+        <v>0.04158127677932354</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06721071237133787</v>
+        <v>0.06692598205865573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08223650773147158</v>
+        <v>0.0812009219546945</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05873801467352232</v>
+        <v>0.05953538406495035</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04275113887008386</v>
+        <v>0.04232303379827286</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09524506888333044</v>
+        <v>0.09654664886517333</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1032898033545173</v>
+        <v>0.1012559950740728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09526176537661186</v>
+        <v>0.09534704277845704</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07521649396126764</v>
+        <v>0.07810099929880004</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1035649339755668</v>
+        <v>0.1050737035494463</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1225331587634633</v>
+        <v>0.125822687995838</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07822846068247073</v>
+        <v>0.08026478868430635</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08578699258851294</v>
+        <v>0.08482259926487568</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09625587521092405</v>
+        <v>0.09621260687903678</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1078393186261119</v>
+        <v>0.1072640409520249</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08152411409058954</v>
+        <v>0.08075464394033394</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07196359908514233</v>
+        <v>0.07333052246406899</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03769830370863856</v>
+        <v>0.03715013571720754</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02615689805148386</v>
+        <v>0.0263794330752946</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0176458584799951</v>
+        <v>0.01674709160050255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01599944818201023</v>
+        <v>0.01586366828787497</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04838394703123345</v>
+        <v>0.04795572244831371</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0391061605982065</v>
+        <v>0.03955664476838184</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02588599673116668</v>
+        <v>0.02605409097494842</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03017318399003422</v>
+        <v>0.03010340380039292</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04749774539277769</v>
+        <v>0.04652020147689641</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03589277640465031</v>
+        <v>0.03677443319092341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02406984885327356</v>
+        <v>0.02508660981542917</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02668015731801449</v>
+        <v>0.02634339429776213</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06598137292042937</v>
+        <v>0.06613472086138024</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05268889531063559</v>
+        <v>0.05214442074781899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04042087581795207</v>
+        <v>0.038801339498057</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04147474930769332</v>
+        <v>0.04201867002309539</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07981853687819811</v>
+        <v>0.07873037350011537</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06701274018333166</v>
+        <v>0.06600397305145056</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05111049901216132</v>
+        <v>0.04947221835436571</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05566749905073439</v>
+        <v>0.05461033260188135</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06820541219001636</v>
+        <v>0.06781978721604258</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05500468534777531</v>
+        <v>0.05502023294791586</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04131740960699842</v>
+        <v>0.04032806015916725</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04408056699180895</v>
+        <v>0.0442282123692877</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.0286823695152731</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.01652484458946615</v>
+        <v>0.01652484458946614</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03085789894200604</v>
+        <v>0.03068411934084178</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02265389622844879</v>
+        <v>0.02312977684634868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01368927661297254</v>
+        <v>0.01366949142887533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008439517302984163</v>
+        <v>0.008297511221058292</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0279249557980724</v>
+        <v>0.02728894537454755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02094772306790777</v>
+        <v>0.01998546176617894</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02290543584926985</v>
+        <v>0.02331990439155281</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01120862699899054</v>
+        <v>0.01082036116681535</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03142886393821558</v>
+        <v>0.03235351326028869</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02465528705447337</v>
+        <v>0.02385448271143789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02041833039601708</v>
+        <v>0.02095534927844576</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01186801649366389</v>
+        <v>0.01177797689099397</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05449264381321049</v>
+        <v>0.0550778530672303</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04618580427429489</v>
+        <v>0.04659736710169544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03671470032163227</v>
+        <v>0.03731318177284684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02695047260747646</v>
+        <v>0.02690654316957345</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05500500898815222</v>
+        <v>0.05358843007490711</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04517006361921922</v>
+        <v>0.0458563226240972</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05045905456670397</v>
+        <v>0.04940922728025005</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02680529209282013</v>
+        <v>0.02661263640394855</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04996468009394035</v>
+        <v>0.04981184653744968</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04198727754996435</v>
+        <v>0.04128074521337349</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03776457693320585</v>
+        <v>0.0377649700155679</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02366242731449855</v>
+        <v>0.0231404518123572</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02688091474472754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02730969072686176</v>
+        <v>0.02730969072686175</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03933621478076166</v>
@@ -1093,7 +1093,7 @@
         <v>0.03195394882016625</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02192694516996015</v>
+        <v>0.02192694516996016</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02862778005285464</v>
@@ -1105,7 +1105,7 @@
         <v>0.02937109968129252</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02470594876558731</v>
+        <v>0.02470594876558732</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008663891085234771</v>
+        <v>0.009541974796278604</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009788390687203163</v>
+        <v>0.008822095849368947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01494878649115707</v>
+        <v>0.0148376760322377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01815511388591512</v>
+        <v>0.01760958139795795</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02215710208353594</v>
+        <v>0.02228472633602935</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02639405783624886</v>
+        <v>0.02503145156024716</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01736227881591814</v>
+        <v>0.01698434907529368</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01416656220426108</v>
+        <v>0.01480588402680896</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01784113411549385</v>
+        <v>0.01789061753689286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02051520189666919</v>
+        <v>0.02045915864619734</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02014579667118609</v>
+        <v>0.01945982379955124</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01813533930657433</v>
+        <v>0.01899758657355368</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03960347245217018</v>
+        <v>0.03904954548648788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03468887104166323</v>
+        <v>0.0337702340268584</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04579142602188972</v>
+        <v>0.04613344419599787</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04004263512947861</v>
+        <v>0.04033792236361979</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06730048224490724</v>
+        <v>0.06676218951820943</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06548251291698724</v>
+        <v>0.06420745481398704</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05190189839824439</v>
+        <v>0.05146355481294675</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03169506920618588</v>
+        <v>0.03267715262659156</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04401767582476397</v>
+        <v>0.0413003610294181</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04132103004045203</v>
+        <v>0.04327093697168504</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04221063815398855</v>
+        <v>0.042032658852233</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0323430940866584</v>
+        <v>0.03263771007425422</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04264339379516215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02701144457354854</v>
+        <v>0.02701144457354853</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05962510435295619</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03977128965793642</v>
+        <v>0.03963006451652818</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04116085370014578</v>
+        <v>0.04060569239974428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03601451210583271</v>
+        <v>0.03576482707043645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02105495871545155</v>
+        <v>0.02146740571287249</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05143717017481073</v>
+        <v>0.05141183995901381</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05469105164157746</v>
+        <v>0.0542824481206296</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03869985598257399</v>
+        <v>0.03807274323723042</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02729542788073816</v>
+        <v>0.02773758574917264</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04785329691449058</v>
+        <v>0.04785915248711729</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0497508851928254</v>
+        <v>0.05004011219789634</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0387138893753833</v>
+        <v>0.03899340654056772</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02621179807685324</v>
+        <v>0.02596391421828666</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05576601449295011</v>
+        <v>0.05557475658140605</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05616901297294521</v>
+        <v>0.05502492024516683</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05056350712778815</v>
+        <v>0.05071064008345769</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0331417453685014</v>
+        <v>0.03451165318982761</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06899688033612582</v>
+        <v>0.06854921084891168</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07194484888981521</v>
+        <v>0.071446964814097</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05259514755412493</v>
+        <v>0.05244362605716759</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03905143388459988</v>
+        <v>0.04032489024703988</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05980809952860803</v>
+        <v>0.0588324007799441</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06047450586845161</v>
+        <v>0.06095140754445767</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04858891554714407</v>
+        <v>0.0495254547897974</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03483981674709172</v>
+        <v>0.03436912456643031</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>28801</v>
+        <v>30325</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>69469</v>
+        <v>67933</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>69067</v>
+        <v>69621</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15572</v>
+        <v>16557</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>61640</v>
+        <v>60532</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>97437</v>
+        <v>96271</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>62743</v>
+        <v>63861</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26835</v>
+        <v>25870</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>101045</v>
+        <v>100617</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>177238</v>
+        <v>175006</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>139689</v>
+        <v>141585</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>47863</v>
+        <v>47383</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55433</v>
+        <v>56191</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>107586</v>
+        <v>105467</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>106939</v>
+        <v>107034</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>37412</v>
+        <v>38847</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>95425</v>
+        <v>96815</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>136457</v>
+        <v>140120</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>98223</v>
+        <v>100780</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>53374</v>
+        <v>52774</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>144712</v>
+        <v>144647</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>232417</v>
+        <v>231178</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>193878</v>
+        <v>192048</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>80568</v>
+        <v>82098</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40598</v>
+        <v>40008</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25458</v>
+        <v>25674</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15901</v>
+        <v>15091</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15304</v>
+        <v>15175</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>51071</v>
+        <v>50619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>42673</v>
+        <v>43165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25886</v>
+        <v>26054</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>33463</v>
+        <v>33386</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>101287</v>
+        <v>99202</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>74100</v>
+        <v>75920</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45760</v>
+        <v>47693</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>55110</v>
+        <v>54415</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>71057</v>
+        <v>71222</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>51281</v>
+        <v>50751</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36425</v>
+        <v>34965</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39673</v>
+        <v>40193</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>84251</v>
+        <v>83102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>73125</v>
+        <v>72024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>51111</v>
+        <v>49472</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>61737</v>
+        <v>60565</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>145445</v>
+        <v>144623</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>113556</v>
+        <v>113589</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>78550</v>
+        <v>76669</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>91053</v>
+        <v>91358</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34436</v>
+        <v>34242</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19949</v>
+        <v>20368</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11231</v>
+        <v>11215</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8780</v>
+        <v>8632</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27589</v>
+        <v>26961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18280</v>
+        <v>17441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17571</v>
+        <v>17889</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11537</v>
+        <v>11138</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>66124</v>
+        <v>68069</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>43228</v>
+        <v>41823</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>32415</v>
+        <v>33267</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>24563</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>60811</v>
+        <v>61464</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40672</v>
+        <v>41034</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30121</v>
+        <v>30612</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28038</v>
+        <v>27993</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>54343</v>
+        <v>52944</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39419</v>
+        <v>40017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38708</v>
+        <v>37903</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27591</v>
+        <v>27393</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>105122</v>
+        <v>104800</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>73615</v>
+        <v>72377</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>59953</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>48974</v>
+        <v>47894</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3860</v>
+        <v>4251</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4904</v>
+        <v>4420</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7531</v>
+        <v>7475</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17500</v>
+        <v>16975</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7559</v>
+        <v>7603</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11893</v>
+        <v>11279</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8434</v>
+        <v>8250</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12795</v>
+        <v>13372</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14035</v>
+        <v>14074</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19522</v>
+        <v>19469</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19935</v>
+        <v>19257</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>33860</v>
+        <v>35470</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17644</v>
+        <v>17397</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17380</v>
+        <v>16919</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23070</v>
+        <v>23243</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>38599</v>
+        <v>38883</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22960</v>
+        <v>22776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29505</v>
+        <v>28931</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25211</v>
+        <v>24998</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28625</v>
+        <v>29512</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34628</v>
+        <v>32490</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>39321</v>
+        <v>41176</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>41770</v>
+        <v>41594</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>60388</v>
+        <v>60938</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>128080</v>
+        <v>127625</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>139802</v>
+        <v>137917</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>120574</v>
+        <v>119738</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>72814</v>
+        <v>74240</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>170054</v>
+        <v>169970</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>192955</v>
+        <v>191514</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>135777</v>
+        <v>133577</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>100002</v>
+        <v>101622</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>312313</v>
+        <v>312351</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>344504</v>
+        <v>346507</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>265438</v>
+        <v>267354</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>186679</v>
+        <v>184913</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>179589</v>
+        <v>178973</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>190777</v>
+        <v>186891</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>169283</v>
+        <v>169776</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>114613</v>
+        <v>119350</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>228107</v>
+        <v>226627</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>253828</v>
+        <v>252072</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>184528</v>
+        <v>183996</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>143072</v>
+        <v>147737</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>390335</v>
+        <v>383967</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>418761</v>
+        <v>422063</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>333145</v>
+        <v>339566</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>248127</v>
+        <v>244775</v>
       </c>
     </row>
     <row r="24">
